--- a/service-system/target/classes/static/构造深度-4车道.xlsx
+++ b/service-system/target/classes/static/构造深度-4车道.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\jjgys\jjgys-parent\service-system\src\main\resources\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12910\Desktop\static\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692094F5-41D9-444F-B6B1-247C14FEC90B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DCEC38-6EEE-41B5-893A-83D5E791E37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="784" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="784" firstSheet="6" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="右幅-混凝土桥" sheetId="459" state="hidden" r:id="rId1"/>
@@ -405,15 +405,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -430,6 +421,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -796,30 +796,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
     </row>
     <row r="2" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="13"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="19"/>
       <c r="E2" t="s">
         <v>2</v>
       </c>
@@ -838,34 +838,34 @@
       <c r="J2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="13"/>
+      <c r="L2" s="19"/>
     </row>
     <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14" t="s">
+      <c r="F3" s="20"/>
+      <c r="G3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
       <c r="J3" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="14"/>
+      <c r="K3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="20"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
@@ -874,21 +874,21 @@
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="20"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="20"/>
+      <c r="F4" s="17"/>
       <c r="G4" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="20"/>
+      <c r="I4" s="17"/>
       <c r="J4" s="11" t="s">
         <v>9</v>
       </c>
@@ -1245,11 +1245,11 @@
       <c r="G27" s="5"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="15" t="s">
+      <c r="J27" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K27" s="16"/>
-      <c r="L27" s="17"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="14"/>
     </row>
     <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
@@ -1300,10 +1300,10 @@
       <c r="J30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K30" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="L30" s="19"/>
+      <c r="K30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="L30" s="16"/>
     </row>
     <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
@@ -1361,6 +1361,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="K3:L3"/>
     <mergeCell ref="K32:L32"/>
     <mergeCell ref="K33:L33"/>
     <mergeCell ref="A4:A6"/>
@@ -1377,18 +1389,6 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="K3:L3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -1425,38 +1425,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
     </row>
     <row r="2" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1469,44 +1469,44 @@
       <c r="P2" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
+      <c r="Q2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
     </row>
     <row r="3" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14" t="s">
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
       <c r="P3" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
+      <c r="Q3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
@@ -1515,27 +1515,27 @@
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
       <c r="F4" s="11" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
       <c r="K4" s="24" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
       <c r="P4" s="11" t="s">
         <v>9</v>
       </c>
@@ -1551,29 +1551,29 @@
       <c r="B5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="10"/>
       <c r="F5" s="11"/>
       <c r="G5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
       <c r="J5" s="10"/>
       <c r="K5" s="25"/>
       <c r="L5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
       <c r="O5" s="10"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
       <c r="T5" s="10"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
@@ -2119,12 +2119,12 @@
       <c r="P28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q28" s="18" t="s">
+      <c r="Q28" s="15" t="s">
         <v>2</v>
       </c>
       <c r="R28" s="30"/>
       <c r="S28" s="30"/>
-      <c r="T28" s="19"/>
+      <c r="T28" s="16"/>
     </row>
     <row r="29" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
@@ -2145,12 +2145,12 @@
       <c r="P29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q29" s="18" t="s">
+      <c r="Q29" s="15" t="s">
         <v>2</v>
       </c>
       <c r="R29" s="30"/>
       <c r="S29" s="30"/>
-      <c r="T29" s="19"/>
+      <c r="T29" s="16"/>
     </row>
     <row r="30" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
@@ -2171,12 +2171,12 @@
       <c r="P30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="18" t="s">
+      <c r="Q30" s="15" t="s">
         <v>2</v>
       </c>
       <c r="R30" s="30"/>
       <c r="S30" s="30"/>
-      <c r="T30" s="19"/>
+      <c r="T30" s="16"/>
     </row>
     <row r="31" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
@@ -2258,6 +2258,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
     <mergeCell ref="Q32:T32"/>
     <mergeCell ref="Q33:T33"/>
     <mergeCell ref="A4:A6"/>
@@ -2274,18 +2286,6 @@
     <mergeCell ref="L4:O4"/>
     <mergeCell ref="Q4:T4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
@@ -2324,38 +2324,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
     </row>
     <row r="2" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -2368,44 +2368,44 @@
       <c r="P2" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
+      <c r="Q2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
     </row>
     <row r="3" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14" t="s">
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
       <c r="P3" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
+      <c r="Q3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
@@ -2414,27 +2414,27 @@
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
       <c r="F4" s="11" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
       <c r="K4" s="24" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
       <c r="P4" s="11" t="s">
         <v>9</v>
       </c>
@@ -2450,29 +2450,29 @@
       <c r="B5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="10"/>
       <c r="F5" s="11"/>
       <c r="G5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
       <c r="J5" s="10"/>
       <c r="K5" s="25"/>
       <c r="L5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
       <c r="O5" s="10"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
       <c r="T5" s="10"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
@@ -3018,12 +3018,12 @@
       <c r="P28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q28" s="18" t="s">
+      <c r="Q28" s="15" t="s">
         <v>2</v>
       </c>
       <c r="R28" s="30"/>
       <c r="S28" s="30"/>
-      <c r="T28" s="19"/>
+      <c r="T28" s="16"/>
     </row>
     <row r="29" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
@@ -3044,12 +3044,12 @@
       <c r="P29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q29" s="18" t="s">
+      <c r="Q29" s="15" t="s">
         <v>2</v>
       </c>
       <c r="R29" s="30"/>
       <c r="S29" s="30"/>
-      <c r="T29" s="19"/>
+      <c r="T29" s="16"/>
     </row>
     <row r="30" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
@@ -3070,12 +3070,12 @@
       <c r="P30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="18" t="s">
+      <c r="Q30" s="15" t="s">
         <v>2</v>
       </c>
       <c r="R30" s="30"/>
       <c r="S30" s="30"/>
-      <c r="T30" s="19"/>
+      <c r="T30" s="16"/>
     </row>
     <row r="31" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
@@ -3157,6 +3157,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
     <mergeCell ref="Q32:T32"/>
     <mergeCell ref="Q33:T33"/>
     <mergeCell ref="A4:A6"/>
@@ -3173,18 +3185,6 @@
     <mergeCell ref="L4:O4"/>
     <mergeCell ref="Q4:T4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
@@ -3223,38 +3223,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
     </row>
     <row r="2" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -3267,44 +3267,44 @@
       <c r="P2" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
+      <c r="Q2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
     </row>
     <row r="3" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14" t="s">
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
       <c r="P3" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
+      <c r="Q3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
@@ -3313,27 +3313,27 @@
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
       <c r="F4" s="11" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
       <c r="K4" s="24" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
       <c r="P4" s="11" t="s">
         <v>9</v>
       </c>
@@ -3349,29 +3349,29 @@
       <c r="B5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="10"/>
       <c r="F5" s="11"/>
       <c r="G5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
       <c r="J5" s="10"/>
       <c r="K5" s="25"/>
       <c r="L5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
       <c r="O5" s="10"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
       <c r="T5" s="10"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
@@ -3917,12 +3917,12 @@
       <c r="P28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q28" s="18" t="s">
+      <c r="Q28" s="15" t="s">
         <v>2</v>
       </c>
       <c r="R28" s="30"/>
       <c r="S28" s="30"/>
-      <c r="T28" s="19"/>
+      <c r="T28" s="16"/>
     </row>
     <row r="29" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
@@ -3943,12 +3943,12 @@
       <c r="P29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q29" s="18" t="s">
+      <c r="Q29" s="15" t="s">
         <v>2</v>
       </c>
       <c r="R29" s="30"/>
       <c r="S29" s="30"/>
-      <c r="T29" s="19"/>
+      <c r="T29" s="16"/>
     </row>
     <row r="30" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
@@ -3969,12 +3969,12 @@
       <c r="P30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="18" t="s">
+      <c r="Q30" s="15" t="s">
         <v>2</v>
       </c>
       <c r="R30" s="30"/>
       <c r="S30" s="30"/>
-      <c r="T30" s="19"/>
+      <c r="T30" s="16"/>
     </row>
     <row r="31" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
@@ -4056,6 +4056,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
     <mergeCell ref="Q32:T32"/>
     <mergeCell ref="Q33:T33"/>
     <mergeCell ref="A4:A6"/>
@@ -4072,18 +4084,6 @@
     <mergeCell ref="L4:O4"/>
     <mergeCell ref="Q4:T4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
@@ -4122,38 +4122,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
     </row>
     <row r="2" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -4166,44 +4166,44 @@
       <c r="P2" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
+      <c r="Q2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
     </row>
     <row r="3" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14" t="s">
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
       <c r="P3" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
+      <c r="Q3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
@@ -4212,27 +4212,27 @@
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
       <c r="F4" s="11" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
       <c r="K4" s="24" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
       <c r="P4" s="11" t="s">
         <v>9</v>
       </c>
@@ -4248,29 +4248,29 @@
       <c r="B5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="10"/>
       <c r="F5" s="11"/>
       <c r="G5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
       <c r="J5" s="10"/>
       <c r="K5" s="25"/>
       <c r="L5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
       <c r="O5" s="10"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
       <c r="T5" s="10"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
@@ -4816,12 +4816,12 @@
       <c r="P28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q28" s="18" t="s">
+      <c r="Q28" s="15" t="s">
         <v>2</v>
       </c>
       <c r="R28" s="30"/>
       <c r="S28" s="30"/>
-      <c r="T28" s="19"/>
+      <c r="T28" s="16"/>
     </row>
     <row r="29" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
@@ -4842,12 +4842,12 @@
       <c r="P29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q29" s="18" t="s">
+      <c r="Q29" s="15" t="s">
         <v>2</v>
       </c>
       <c r="R29" s="30"/>
       <c r="S29" s="30"/>
-      <c r="T29" s="19"/>
+      <c r="T29" s="16"/>
     </row>
     <row r="30" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
@@ -4868,12 +4868,12 @@
       <c r="P30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="18" t="s">
+      <c r="Q30" s="15" t="s">
         <v>2</v>
       </c>
       <c r="R30" s="30"/>
       <c r="S30" s="30"/>
-      <c r="T30" s="19"/>
+      <c r="T30" s="16"/>
     </row>
     <row r="31" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
@@ -4955,6 +4955,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
     <mergeCell ref="Q32:T32"/>
     <mergeCell ref="Q33:T33"/>
     <mergeCell ref="A4:A6"/>
@@ -4971,18 +4983,6 @@
     <mergeCell ref="L4:O4"/>
     <mergeCell ref="Q4:T4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
@@ -5021,38 +5021,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
     </row>
     <row r="2" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -5065,44 +5065,44 @@
       <c r="P2" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
+      <c r="Q2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
     </row>
     <row r="3" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14" t="s">
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
       <c r="P3" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
+      <c r="Q3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
@@ -5111,27 +5111,27 @@
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
       <c r="F4" s="11" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
       <c r="K4" s="24" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
       <c r="P4" s="11" t="s">
         <v>9</v>
       </c>
@@ -5147,22 +5147,22 @@
       <c r="B5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="10"/>
       <c r="F5" s="11"/>
       <c r="G5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
       <c r="J5" s="10"/>
       <c r="K5" s="25"/>
       <c r="L5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
       <c r="O5" s="10"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="11" t="s">
@@ -5715,12 +5715,12 @@
       <c r="P28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q28" s="18" t="s">
+      <c r="Q28" s="15" t="s">
         <v>2</v>
       </c>
       <c r="R28" s="30"/>
       <c r="S28" s="30"/>
-      <c r="T28" s="19"/>
+      <c r="T28" s="16"/>
     </row>
     <row r="29" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
@@ -5741,12 +5741,12 @@
       <c r="P29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q29" s="18" t="s">
+      <c r="Q29" s="15" t="s">
         <v>2</v>
       </c>
       <c r="R29" s="30"/>
       <c r="S29" s="30"/>
-      <c r="T29" s="19"/>
+      <c r="T29" s="16"/>
     </row>
     <row r="30" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
@@ -5767,12 +5767,12 @@
       <c r="P30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="18" t="s">
+      <c r="Q30" s="15" t="s">
         <v>2</v>
       </c>
       <c r="R30" s="30"/>
       <c r="S30" s="30"/>
-      <c r="T30" s="19"/>
+      <c r="T30" s="16"/>
     </row>
     <row r="31" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
@@ -5854,6 +5854,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
     <mergeCell ref="Q32:T32"/>
     <mergeCell ref="Q33:T33"/>
     <mergeCell ref="A4:A6"/>
@@ -5870,18 +5882,6 @@
     <mergeCell ref="L4:O4"/>
     <mergeCell ref="Q4:T4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
@@ -5920,38 +5920,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
     </row>
     <row r="2" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -5964,44 +5964,44 @@
       <c r="P2" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
+      <c r="Q2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
     </row>
     <row r="3" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14" t="s">
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
       <c r="P3" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
+      <c r="Q3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
@@ -6010,27 +6010,27 @@
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
       <c r="F4" s="11" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
       <c r="K4" s="24" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
       <c r="P4" s="11" t="s">
         <v>9</v>
       </c>
@@ -6046,29 +6046,29 @@
       <c r="B5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="10"/>
       <c r="F5" s="11"/>
       <c r="G5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
       <c r="J5" s="10"/>
       <c r="K5" s="25"/>
       <c r="L5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
       <c r="O5" s="10"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
       <c r="T5" s="10"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
@@ -6614,12 +6614,12 @@
       <c r="P28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q28" s="18" t="s">
+      <c r="Q28" s="15" t="s">
         <v>2</v>
       </c>
       <c r="R28" s="30"/>
       <c r="S28" s="30"/>
-      <c r="T28" s="19"/>
+      <c r="T28" s="16"/>
     </row>
     <row r="29" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
@@ -6640,12 +6640,12 @@
       <c r="P29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q29" s="18" t="s">
+      <c r="Q29" s="15" t="s">
         <v>2</v>
       </c>
       <c r="R29" s="30"/>
       <c r="S29" s="30"/>
-      <c r="T29" s="19"/>
+      <c r="T29" s="16"/>
     </row>
     <row r="30" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
@@ -6666,12 +6666,12 @@
       <c r="P30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="18" t="s">
+      <c r="Q30" s="15" t="s">
         <v>2</v>
       </c>
       <c r="R30" s="30"/>
       <c r="S30" s="30"/>
-      <c r="T30" s="19"/>
+      <c r="T30" s="16"/>
     </row>
     <row r="31" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
@@ -6753,6 +6753,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
     <mergeCell ref="Q32:T32"/>
     <mergeCell ref="Q33:T33"/>
     <mergeCell ref="A4:A6"/>
@@ -6769,18 +6781,6 @@
     <mergeCell ref="L4:O4"/>
     <mergeCell ref="Q4:T4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
@@ -6819,38 +6819,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
     </row>
     <row r="2" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -6863,44 +6863,44 @@
       <c r="P2" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
+      <c r="Q2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
     </row>
     <row r="3" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14" t="s">
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
       <c r="P3" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
+      <c r="Q3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
@@ -6909,27 +6909,27 @@
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
       <c r="F4" s="11" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
       <c r="K4" s="24" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
       <c r="P4" s="11" t="s">
         <v>9</v>
       </c>
@@ -6945,29 +6945,29 @@
       <c r="B5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="10"/>
       <c r="F5" s="11"/>
       <c r="G5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
       <c r="J5" s="10"/>
       <c r="K5" s="25"/>
       <c r="L5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
       <c r="O5" s="10"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
       <c r="T5" s="10"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
@@ -7513,12 +7513,12 @@
       <c r="P28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q28" s="18" t="s">
+      <c r="Q28" s="15" t="s">
         <v>2</v>
       </c>
       <c r="R28" s="30"/>
       <c r="S28" s="30"/>
-      <c r="T28" s="19"/>
+      <c r="T28" s="16"/>
     </row>
     <row r="29" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
@@ -7539,12 +7539,12 @@
       <c r="P29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q29" s="18" t="s">
+      <c r="Q29" s="15" t="s">
         <v>2</v>
       </c>
       <c r="R29" s="30"/>
       <c r="S29" s="30"/>
-      <c r="T29" s="19"/>
+      <c r="T29" s="16"/>
     </row>
     <row r="30" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
@@ -7565,12 +7565,12 @@
       <c r="P30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="18" t="s">
+      <c r="Q30" s="15" t="s">
         <v>2</v>
       </c>
       <c r="R30" s="30"/>
       <c r="S30" s="30"/>
-      <c r="T30" s="19"/>
+      <c r="T30" s="16"/>
     </row>
     <row r="31" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
@@ -7652,6 +7652,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
     <mergeCell ref="Q32:T32"/>
     <mergeCell ref="Q33:T33"/>
     <mergeCell ref="A4:A6"/>
@@ -7668,18 +7680,6 @@
     <mergeCell ref="L4:O4"/>
     <mergeCell ref="Q4:T4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
@@ -7718,38 +7718,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
     </row>
     <row r="2" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -7762,44 +7762,44 @@
       <c r="P2" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
+      <c r="Q2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
     </row>
     <row r="3" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14" t="s">
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
       <c r="P3" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
+      <c r="Q3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
@@ -7808,27 +7808,27 @@
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
       <c r="F4" s="11" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
       <c r="K4" s="24" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
       <c r="P4" s="11" t="s">
         <v>9</v>
       </c>
@@ -7844,29 +7844,29 @@
       <c r="B5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="10"/>
       <c r="F5" s="11"/>
       <c r="G5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
       <c r="J5" s="10"/>
       <c r="K5" s="25"/>
       <c r="L5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
       <c r="O5" s="10"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
       <c r="T5" s="10"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
@@ -8412,12 +8412,12 @@
       <c r="P28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q28" s="18" t="s">
+      <c r="Q28" s="15" t="s">
         <v>2</v>
       </c>
       <c r="R28" s="30"/>
       <c r="S28" s="30"/>
-      <c r="T28" s="19"/>
+      <c r="T28" s="16"/>
     </row>
     <row r="29" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
@@ -8438,12 +8438,12 @@
       <c r="P29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q29" s="18" t="s">
+      <c r="Q29" s="15" t="s">
         <v>2</v>
       </c>
       <c r="R29" s="30"/>
       <c r="S29" s="30"/>
-      <c r="T29" s="19"/>
+      <c r="T29" s="16"/>
     </row>
     <row r="30" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
@@ -8464,12 +8464,12 @@
       <c r="P30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="18" t="s">
+      <c r="Q30" s="15" t="s">
         <v>2</v>
       </c>
       <c r="R30" s="30"/>
       <c r="S30" s="30"/>
-      <c r="T30" s="19"/>
+      <c r="T30" s="16"/>
     </row>
     <row r="31" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
@@ -8551,21 +8551,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="Q33:T33"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="Q29:T29"/>
-    <mergeCell ref="Q30:T30"/>
-    <mergeCell ref="Q31:T31"/>
-    <mergeCell ref="Q32:T32"/>
-    <mergeCell ref="P27:T27"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="Q5:T5"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="K4:K6"/>
@@ -8579,6 +8564,21 @@
     <mergeCell ref="Q3:T3"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="C3:F3"/>
+    <mergeCell ref="P27:T27"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="Q33:T33"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="Q29:T29"/>
+    <mergeCell ref="Q30:T30"/>
+    <mergeCell ref="Q31:T31"/>
+    <mergeCell ref="Q32:T32"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
@@ -8599,7 +8599,7 @@
   </sheetPr>
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:F3"/>
     </sheetView>
   </sheetViews>
@@ -8617,38 +8617,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
     </row>
     <row r="2" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -8661,44 +8661,44 @@
       <c r="P2" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
+      <c r="Q2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
     </row>
     <row r="3" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14" t="s">
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
       <c r="P3" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
+      <c r="Q3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
@@ -8707,27 +8707,27 @@
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
       <c r="F4" s="11" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
       <c r="K4" s="24" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
       <c r="P4" s="11" t="s">
         <v>9</v>
       </c>
@@ -8743,29 +8743,29 @@
       <c r="B5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="10"/>
       <c r="F5" s="11"/>
       <c r="G5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
       <c r="J5" s="10"/>
       <c r="K5" s="25"/>
       <c r="L5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
       <c r="O5" s="10"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
       <c r="T5" s="10"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
@@ -9311,12 +9311,12 @@
       <c r="P28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q28" s="18" t="s">
+      <c r="Q28" s="15" t="s">
         <v>2</v>
       </c>
       <c r="R28" s="30"/>
       <c r="S28" s="30"/>
-      <c r="T28" s="19"/>
+      <c r="T28" s="16"/>
     </row>
     <row r="29" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
@@ -9337,12 +9337,12 @@
       <c r="P29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q29" s="18" t="s">
+      <c r="Q29" s="15" t="s">
         <v>2</v>
       </c>
       <c r="R29" s="30"/>
       <c r="S29" s="30"/>
-      <c r="T29" s="19"/>
+      <c r="T29" s="16"/>
     </row>
     <row r="30" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
@@ -9363,12 +9363,12 @@
       <c r="P30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="18" t="s">
+      <c r="Q30" s="15" t="s">
         <v>2</v>
       </c>
       <c r="R30" s="30"/>
       <c r="S30" s="30"/>
-      <c r="T30" s="19"/>
+      <c r="T30" s="16"/>
     </row>
     <row r="31" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
@@ -9450,21 +9450,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="Q33:T33"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="Q29:T29"/>
-    <mergeCell ref="Q30:T30"/>
-    <mergeCell ref="Q31:T31"/>
-    <mergeCell ref="Q32:T32"/>
-    <mergeCell ref="P27:T27"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="Q5:T5"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="K4:K6"/>
@@ -9478,6 +9463,21 @@
     <mergeCell ref="Q3:T3"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="C3:F3"/>
+    <mergeCell ref="P27:T27"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="Q33:T33"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="Q29:T29"/>
+    <mergeCell ref="Q30:T30"/>
+    <mergeCell ref="Q31:T31"/>
+    <mergeCell ref="Q32:T32"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
@@ -9511,30 +9511,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
     </row>
     <row r="2" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="13"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="19"/>
       <c r="E2" t="s">
         <v>2</v>
       </c>
@@ -9553,34 +9553,34 @@
       <c r="J2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="13"/>
+      <c r="L2" s="19"/>
     </row>
     <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14" t="s">
+      <c r="F3" s="20"/>
+      <c r="G3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
       <c r="J3" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="14"/>
+      <c r="K3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="20"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
@@ -9589,21 +9589,21 @@
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="20"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="20"/>
+      <c r="F4" s="17"/>
       <c r="G4" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="20"/>
+      <c r="I4" s="17"/>
       <c r="J4" s="11" t="s">
         <v>9</v>
       </c>
@@ -9960,11 +9960,11 @@
       <c r="G27" s="5"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="15" t="s">
+      <c r="J27" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K27" s="16"/>
-      <c r="L27" s="17"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="14"/>
     </row>
     <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
@@ -10015,10 +10015,10 @@
       <c r="J30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K30" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="L30" s="19"/>
+      <c r="K30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="L30" s="16"/>
     </row>
     <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
@@ -10076,6 +10076,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="K3:L3"/>
     <mergeCell ref="K32:L32"/>
     <mergeCell ref="K33:L33"/>
     <mergeCell ref="A4:A6"/>
@@ -10092,18 +10104,6 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="K3:L3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -10135,30 +10135,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
     </row>
     <row r="2" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="13"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="19"/>
       <c r="E2" t="s">
         <v>2</v>
       </c>
@@ -10177,34 +10177,34 @@
       <c r="J2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="13"/>
+      <c r="L2" s="19"/>
     </row>
     <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14" t="s">
+      <c r="F3" s="20"/>
+      <c r="G3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
       <c r="J3" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="14"/>
+      <c r="K3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="20"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
@@ -10213,21 +10213,21 @@
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="20"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="20"/>
+      <c r="F4" s="17"/>
       <c r="G4" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="20"/>
+      <c r="I4" s="17"/>
       <c r="J4" s="11" t="s">
         <v>9</v>
       </c>
@@ -10584,11 +10584,11 @@
       <c r="G27" s="5"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="15" t="s">
+      <c r="J27" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K27" s="16"/>
-      <c r="L27" s="17"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="14"/>
     </row>
     <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
@@ -10639,10 +10639,10 @@
       <c r="J30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K30" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="L30" s="19"/>
+      <c r="K30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="L30" s="16"/>
     </row>
     <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
@@ -10700,6 +10700,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="K3:L3"/>
     <mergeCell ref="K32:L32"/>
     <mergeCell ref="K33:L33"/>
     <mergeCell ref="A4:A6"/>
@@ -10716,18 +10728,6 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="K3:L3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -10759,30 +10759,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
     </row>
     <row r="2" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="13"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="19"/>
       <c r="E2" t="s">
         <v>2</v>
       </c>
@@ -10801,34 +10801,34 @@
       <c r="J2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="13"/>
+      <c r="L2" s="19"/>
     </row>
     <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14" t="s">
+      <c r="F3" s="20"/>
+      <c r="G3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
       <c r="J3" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="14"/>
+      <c r="K3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="20"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
@@ -10837,21 +10837,21 @@
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="20"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="20"/>
+      <c r="F4" s="17"/>
       <c r="G4" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="20"/>
+      <c r="I4" s="17"/>
       <c r="J4" s="11" t="s">
         <v>9</v>
       </c>
@@ -11208,11 +11208,11 @@
       <c r="G27" s="5"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="15" t="s">
+      <c r="J27" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K27" s="16"/>
-      <c r="L27" s="17"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="14"/>
     </row>
     <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
@@ -11263,10 +11263,10 @@
       <c r="J30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K30" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="L30" s="19"/>
+      <c r="K30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="L30" s="16"/>
     </row>
     <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
@@ -11324,6 +11324,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="K3:L3"/>
     <mergeCell ref="K32:L32"/>
     <mergeCell ref="K33:L33"/>
     <mergeCell ref="A4:A6"/>
@@ -11340,18 +11352,6 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="K3:L3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -11383,30 +11383,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
     </row>
     <row r="2" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="13"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="19"/>
       <c r="E2" t="s">
         <v>2</v>
       </c>
@@ -11425,34 +11425,34 @@
       <c r="J2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="13"/>
+      <c r="L2" s="19"/>
     </row>
     <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14" t="s">
+      <c r="F3" s="20"/>
+      <c r="G3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
       <c r="J3" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="14"/>
+      <c r="K3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="20"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
@@ -11461,21 +11461,21 @@
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="20"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="20"/>
+      <c r="F4" s="17"/>
       <c r="G4" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="20"/>
+      <c r="I4" s="17"/>
       <c r="J4" s="11" t="s">
         <v>9</v>
       </c>
@@ -11832,11 +11832,11 @@
       <c r="G27" s="5"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="15" t="s">
+      <c r="J27" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K27" s="16"/>
-      <c r="L27" s="17"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="14"/>
     </row>
     <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
@@ -11887,10 +11887,10 @@
       <c r="J30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K30" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="L30" s="19"/>
+      <c r="K30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="L30" s="16"/>
     </row>
     <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
@@ -11948,6 +11948,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="K3:L3"/>
     <mergeCell ref="K32:L32"/>
     <mergeCell ref="K33:L33"/>
     <mergeCell ref="A4:A6"/>
@@ -11964,18 +11976,6 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="K3:L3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -12007,30 +12007,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
     </row>
     <row r="2" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="13"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="19"/>
       <c r="E2" t="s">
         <v>2</v>
       </c>
@@ -12049,34 +12049,34 @@
       <c r="J2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="13"/>
+      <c r="L2" s="19"/>
     </row>
     <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14" t="s">
+      <c r="F3" s="20"/>
+      <c r="G3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
       <c r="J3" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="14"/>
+      <c r="K3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="20"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
@@ -12085,21 +12085,21 @@
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="20"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="20"/>
+      <c r="F4" s="17"/>
       <c r="G4" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="20"/>
+      <c r="I4" s="17"/>
       <c r="J4" s="11" t="s">
         <v>9</v>
       </c>
@@ -12456,11 +12456,11 @@
       <c r="G27" s="5"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="15" t="s">
+      <c r="J27" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K27" s="16"/>
-      <c r="L27" s="17"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="14"/>
     </row>
     <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
@@ -12511,10 +12511,10 @@
       <c r="J30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K30" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="L30" s="19"/>
+      <c r="K30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="L30" s="16"/>
     </row>
     <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
@@ -12572,6 +12572,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="K3:L3"/>
     <mergeCell ref="K32:L32"/>
     <mergeCell ref="K33:L33"/>
     <mergeCell ref="A4:A6"/>
@@ -12588,18 +12600,6 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="K3:L3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -12618,7 +12618,7 @@
   </sheetPr>
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -12636,38 +12636,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
     </row>
     <row r="2" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -12680,44 +12680,44 @@
       <c r="P2" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
+      <c r="Q2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
     </row>
     <row r="3" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14" t="s">
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
       <c r="P3" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
+      <c r="Q3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
@@ -12726,27 +12726,27 @@
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
       <c r="F4" s="11" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
       <c r="K4" s="24" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
       <c r="P4" s="11" t="s">
         <v>9</v>
       </c>
@@ -12762,22 +12762,22 @@
       <c r="B5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="10"/>
       <c r="F5" s="11"/>
       <c r="G5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
       <c r="J5" s="10"/>
       <c r="K5" s="25"/>
       <c r="L5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
       <c r="O5" s="10"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="11" t="s">
@@ -13330,12 +13330,12 @@
       <c r="P28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q28" s="18" t="s">
+      <c r="Q28" s="15" t="s">
         <v>2</v>
       </c>
       <c r="R28" s="30"/>
       <c r="S28" s="30"/>
-      <c r="T28" s="19"/>
+      <c r="T28" s="16"/>
     </row>
     <row r="29" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
@@ -13356,12 +13356,12 @@
       <c r="P29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q29" s="18" t="s">
+      <c r="Q29" s="15" t="s">
         <v>2</v>
       </c>
       <c r="R29" s="30"/>
       <c r="S29" s="30"/>
-      <c r="T29" s="19"/>
+      <c r="T29" s="16"/>
     </row>
     <row r="30" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
@@ -13382,12 +13382,12 @@
       <c r="P30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="18" t="s">
+      <c r="Q30" s="15" t="s">
         <v>2</v>
       </c>
       <c r="R30" s="30"/>
       <c r="S30" s="30"/>
-      <c r="T30" s="19"/>
+      <c r="T30" s="16"/>
     </row>
     <row r="31" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
@@ -13469,6 +13469,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
     <mergeCell ref="Q32:T32"/>
     <mergeCell ref="Q33:T33"/>
     <mergeCell ref="A4:A6"/>
@@ -13485,18 +13497,6 @@
     <mergeCell ref="L4:O4"/>
     <mergeCell ref="Q4:T4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
@@ -13535,38 +13535,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
     </row>
     <row r="2" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -13579,44 +13579,44 @@
       <c r="P2" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
+      <c r="Q2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
     </row>
     <row r="3" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14" t="s">
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
       <c r="P3" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
+      <c r="Q3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
@@ -13625,27 +13625,27 @@
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
       <c r="F4" s="11" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
       <c r="K4" s="24" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
       <c r="P4" s="11" t="s">
         <v>9</v>
       </c>
@@ -13661,29 +13661,29 @@
       <c r="B5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="10"/>
       <c r="F5" s="11"/>
       <c r="G5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
       <c r="J5" s="10"/>
       <c r="K5" s="25"/>
       <c r="L5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
       <c r="O5" s="10"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
       <c r="T5" s="10"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
@@ -14229,12 +14229,12 @@
       <c r="P28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q28" s="18" t="s">
+      <c r="Q28" s="15" t="s">
         <v>2</v>
       </c>
       <c r="R28" s="30"/>
       <c r="S28" s="30"/>
-      <c r="T28" s="19"/>
+      <c r="T28" s="16"/>
     </row>
     <row r="29" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
@@ -14255,12 +14255,12 @@
       <c r="P29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q29" s="18" t="s">
+      <c r="Q29" s="15" t="s">
         <v>2</v>
       </c>
       <c r="R29" s="30"/>
       <c r="S29" s="30"/>
-      <c r="T29" s="19"/>
+      <c r="T29" s="16"/>
     </row>
     <row r="30" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
@@ -14281,12 +14281,12 @@
       <c r="P30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="18" t="s">
+      <c r="Q30" s="15" t="s">
         <v>2</v>
       </c>
       <c r="R30" s="30"/>
       <c r="S30" s="30"/>
-      <c r="T30" s="19"/>
+      <c r="T30" s="16"/>
     </row>
     <row r="31" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
@@ -14368,6 +14368,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
     <mergeCell ref="Q32:T32"/>
     <mergeCell ref="Q33:T33"/>
     <mergeCell ref="A4:A6"/>
@@ -14384,18 +14396,6 @@
     <mergeCell ref="L4:O4"/>
     <mergeCell ref="Q4:T4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
@@ -14434,38 +14434,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
     </row>
     <row r="2" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -14478,44 +14478,44 @@
       <c r="P2" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
+      <c r="Q2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
     </row>
     <row r="3" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14" t="s">
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
       <c r="P3" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
+      <c r="Q3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
@@ -14524,27 +14524,27 @@
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
       <c r="F4" s="11" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
       <c r="K4" s="24" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
       <c r="P4" s="11" t="s">
         <v>9</v>
       </c>
@@ -14560,29 +14560,29 @@
       <c r="B5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="10"/>
       <c r="F5" s="11"/>
       <c r="G5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
       <c r="J5" s="10"/>
       <c r="K5" s="25"/>
       <c r="L5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
       <c r="O5" s="10"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
       <c r="T5" s="10"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
@@ -15128,12 +15128,12 @@
       <c r="P28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q28" s="18" t="s">
+      <c r="Q28" s="15" t="s">
         <v>2</v>
       </c>
       <c r="R28" s="30"/>
       <c r="S28" s="30"/>
-      <c r="T28" s="19"/>
+      <c r="T28" s="16"/>
     </row>
     <row r="29" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
@@ -15154,12 +15154,12 @@
       <c r="P29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q29" s="18" t="s">
+      <c r="Q29" s="15" t="s">
         <v>2</v>
       </c>
       <c r="R29" s="30"/>
       <c r="S29" s="30"/>
-      <c r="T29" s="19"/>
+      <c r="T29" s="16"/>
     </row>
     <row r="30" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
@@ -15180,12 +15180,12 @@
       <c r="P30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="18" t="s">
+      <c r="Q30" s="15" t="s">
         <v>2</v>
       </c>
       <c r="R30" s="30"/>
       <c r="S30" s="30"/>
-      <c r="T30" s="19"/>
+      <c r="T30" s="16"/>
     </row>
     <row r="31" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
@@ -15267,6 +15267,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
     <mergeCell ref="Q32:T32"/>
     <mergeCell ref="Q33:T33"/>
     <mergeCell ref="A4:A6"/>
@@ -15283,18 +15295,6 @@
     <mergeCell ref="L4:O4"/>
     <mergeCell ref="Q4:T4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
